--- a/Desarrollo/SGT/Gestión/SGT - C.xlsx
+++ b/Desarrollo/SGT/Gestión/SGT - C.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naflg\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cris\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{792D3DF1-ACC5-4E99-A83A-2DA6D8FD1A62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5ACC7A6-1A48-4028-86A3-FB581CDE2CF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DA959D79-5179-48B8-BCAE-E310E8DD6D35}"/>
+    <workbookView xWindow="1065" yWindow="0" windowWidth="24840" windowHeight="13935" xr2:uid="{DA959D79-5179-48B8-BCAE-E310E8DD6D35}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="55">
   <si>
     <t xml:space="preserve">DESCRIPCIÓN </t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>Tineo / Soldevilla</t>
+  </si>
+  <si>
+    <t>9.2 Ejecución de Casos de Prueba</t>
   </si>
 </sst>
 </file>
@@ -735,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C41CAE-67AF-4D37-97AC-59DE5FCB77C0}">
-  <dimension ref="A1:CH25"/>
+  <dimension ref="A1:CH26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="BI7" sqref="BI7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,7 +993,7 @@
       </c>
       <c r="CE1" s="10"/>
     </row>
-    <row r="2" spans="1:86" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:86" ht="36.75" x14ac:dyDescent="0.25">
       <c r="C2" s="15"/>
       <c r="E2" s="11">
         <v>43722</v>
@@ -1581,7 +1584,7 @@
         <v>43739</v>
       </c>
       <c r="C16" s="18">
-        <v>43785</v>
+        <v>43801</v>
       </c>
       <c r="D16" s="33" t="s">
         <v>51</v>
@@ -1750,7 +1753,7 @@
         <v>43781</v>
       </c>
       <c r="C21" s="25">
-        <v>43782</v>
+        <v>43784</v>
       </c>
       <c r="D21" s="35" t="s">
         <v>52</v>
@@ -1772,10 +1775,10 @@
         <v>37</v>
       </c>
       <c r="B22" s="18">
-        <v>43787</v>
+        <v>43801</v>
       </c>
       <c r="C22" s="18">
-        <v>43792</v>
+        <v>43803</v>
       </c>
       <c r="D22" s="33" t="s">
         <v>51</v>
@@ -1801,10 +1804,10 @@
         <v>40</v>
       </c>
       <c r="B23" s="18">
-        <v>43787</v>
+        <v>43801</v>
       </c>
       <c r="C23" s="18">
-        <v>43789</v>
+        <v>43803</v>
       </c>
       <c r="D23" s="33" t="s">
         <v>53</v>
@@ -1822,18 +1825,18 @@
       <c r="BS23" s="29"/>
       <c r="BT23" s="29"/>
     </row>
-    <row r="24" spans="1:82" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
-        <v>38</v>
+    <row r="24" spans="1:82" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="B24" s="18">
-        <v>43794</v>
+        <v>43803</v>
       </c>
       <c r="C24" s="18">
-        <v>43799</v>
+        <v>43803</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
@@ -1851,18 +1854,18 @@
       <c r="CC24" s="29"/>
       <c r="CD24" s="29"/>
     </row>
-    <row r="25" spans="1:82" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:82" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="18">
-        <v>43794</v>
+        <v>43803</v>
       </c>
       <c r="C25" s="18">
-        <v>43799</v>
+        <v>43805</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
@@ -1880,6 +1883,20 @@
       <c r="CC25" s="29"/>
       <c r="CD25" s="29"/>
     </row>
+    <row r="26" spans="1:82" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="18">
+        <v>43803</v>
+      </c>
+      <c r="C26" s="18">
+        <v>43805</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Desarrollo/SGT/Gestión/SGT - C.xlsx
+++ b/Desarrollo/SGT/Gestión/SGT - C.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cris\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5ACC7A6-1A48-4028-86A3-FB581CDE2CF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="0" windowWidth="24840" windowHeight="13935" xr2:uid="{DA959D79-5179-48B8-BCAE-E310E8DD6D35}"/>
+    <workbookView xWindow="1065" yWindow="0" windowWidth="24840" windowHeight="13935"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t xml:space="preserve">DESCRIPCIÓN </t>
   </si>
@@ -43,27 +37,6 @@
   </si>
   <si>
     <t>RESPONSABLE</t>
-  </si>
-  <si>
-    <t>Lu</t>
-  </si>
-  <si>
-    <t>Ma</t>
-  </si>
-  <si>
-    <t>Mi</t>
-  </si>
-  <si>
-    <t>Ju</t>
-  </si>
-  <si>
-    <t>Vi</t>
-  </si>
-  <si>
-    <t>Sa</t>
-  </si>
-  <si>
-    <t>Do</t>
   </si>
   <si>
     <t>23-sep</t>
@@ -201,7 +174,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -730,18 +703,20 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C41CAE-67AF-4D37-97AC-59DE5FCB77C0}">
-  <dimension ref="A1:CH26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CS26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="AF1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="topRight" activeCell="AR25" sqref="AR25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,246 +729,97 @@
     <col min="14" max="28" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="29" max="59" width="3.7109375" customWidth="1"/>
     <col min="60" max="82" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="3" customWidth="1"/>
+    <col min="84" max="95" width="4.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" x14ac:dyDescent="0.25">
-      <c r="E1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AL1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="AM1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AN1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BN1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="BO1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="BP1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="BQ1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="BR1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="BS1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="BT1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="BU1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="BV1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="BW1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="BX1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="BY1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="BZ1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="CA1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="CB1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="CC1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="CD1" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="1" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BH1" s="1"/>
+      <c r="BI1" s="1"/>
+      <c r="BJ1" s="1"/>
+      <c r="BK1" s="1"/>
+      <c r="BL1" s="1"/>
+      <c r="BM1" s="1"/>
+      <c r="BN1" s="10"/>
+      <c r="BO1" s="10"/>
+      <c r="BP1" s="10"/>
+      <c r="BQ1" s="10"/>
+      <c r="BR1" s="10"/>
+      <c r="BS1" s="10"/>
+      <c r="BT1" s="10"/>
+      <c r="BU1" s="10"/>
+      <c r="BV1" s="10"/>
+      <c r="BW1" s="10"/>
+      <c r="BX1" s="10"/>
+      <c r="BY1" s="10"/>
+      <c r="BZ1" s="10"/>
+      <c r="CA1" s="10"/>
+      <c r="CB1" s="10"/>
+      <c r="CC1" s="10"/>
+      <c r="CD1" s="10"/>
       <c r="CE1" s="10"/>
-    </row>
-    <row r="2" spans="1:86" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="CF1" s="10"/>
+      <c r="CG1" s="10"/>
+      <c r="CH1" s="10"/>
+      <c r="CI1" s="10"/>
+      <c r="CJ1" s="10"/>
+      <c r="CK1" s="10"/>
+      <c r="CL1" s="10"/>
+      <c r="CM1" s="10"/>
+      <c r="CN1" s="10"/>
+      <c r="CO1" s="10"/>
+      <c r="CP1" s="10"/>
+      <c r="CQ1" s="10"/>
+      <c r="CR1" s="10"/>
+      <c r="CS1" s="10"/>
+    </row>
+    <row r="2" spans="1:97" ht="38.25" x14ac:dyDescent="0.25">
       <c r="C2" s="15"/>
       <c r="E2" s="11">
         <v>43722</v>
@@ -1023,28 +849,28 @@
         <v>43730</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="V2" s="4">
         <v>43739</v>
@@ -1229,12 +1055,47 @@
       <c r="CD2" s="11">
         <v>43799</v>
       </c>
-      <c r="CE2" s="11"/>
-      <c r="CF2" s="11"/>
-      <c r="CG2" s="11"/>
-      <c r="CH2" s="11"/>
-    </row>
-    <row r="3" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="CE2" s="11">
+        <v>43800</v>
+      </c>
+      <c r="CF2" s="11">
+        <v>43801</v>
+      </c>
+      <c r="CG2" s="11">
+        <v>43802</v>
+      </c>
+      <c r="CH2" s="11">
+        <v>43803</v>
+      </c>
+      <c r="CI2" s="11">
+        <v>43804</v>
+      </c>
+      <c r="CJ2" s="11">
+        <v>43805</v>
+      </c>
+      <c r="CK2" s="11">
+        <v>43806</v>
+      </c>
+      <c r="CL2" s="11">
+        <v>43807</v>
+      </c>
+      <c r="CM2" s="11">
+        <v>43808</v>
+      </c>
+      <c r="CN2" s="11">
+        <v>43809</v>
+      </c>
+      <c r="CO2" s="11">
+        <v>43810</v>
+      </c>
+      <c r="CP2" s="11">
+        <v>43811</v>
+      </c>
+      <c r="CQ2" s="11">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="3" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
@@ -1257,9 +1118,9 @@
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
     </row>
-    <row r="4" spans="1:86" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:97" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B4" s="18">
         <v>43722</v>
@@ -1268,7 +1129,7 @@
         <v>43745</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
@@ -1295,9 +1156,9 @@
       <c r="AA4" s="13"/>
       <c r="AB4" s="13"/>
     </row>
-    <row r="5" spans="1:86" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:97" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B5" s="8">
         <v>43722</v>
@@ -1306,7 +1167,7 @@
         <v>43729</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E5" s="31"/>
       <c r="F5" s="31"/>
@@ -1318,9 +1179,9 @@
       <c r="L5" s="31"/>
       <c r="M5" s="16"/>
     </row>
-    <row r="6" spans="1:86" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:97" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B6" s="8">
         <v>43730</v>
@@ -1329,7 +1190,7 @@
         <v>43738</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
@@ -1349,9 +1210,9 @@
       <c r="T6" s="29"/>
       <c r="U6" s="29"/>
     </row>
-    <row r="7" spans="1:86" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:97" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B7" s="25">
         <v>43739</v>
@@ -1360,7 +1221,7 @@
         <v>43745</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
@@ -1379,9 +1240,9 @@
       <c r="AA7" s="29"/>
       <c r="AB7" s="29"/>
     </row>
-    <row r="8" spans="1:86" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:97" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B8" s="18">
         <v>43724</v>
@@ -1390,7 +1251,7 @@
         <v>43738</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
@@ -1402,9 +1263,9 @@
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
     </row>
-    <row r="9" spans="1:86" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:97" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B9" s="8">
         <v>43724</v>
@@ -1413,7 +1274,7 @@
         <v>43728</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
@@ -1425,9 +1286,9 @@
       <c r="L9" s="19"/>
       <c r="M9" s="19"/>
     </row>
-    <row r="10" spans="1:86" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:97" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B10" s="8">
         <v>43729</v>
@@ -1436,7 +1297,7 @@
         <v>43738</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
@@ -1448,9 +1309,9 @@
       <c r="L10" s="19"/>
       <c r="M10" s="19"/>
     </row>
-    <row r="11" spans="1:86" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:97" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B11" s="8">
         <v>43729</v>
@@ -1459,7 +1320,7 @@
         <v>43731</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
@@ -1472,9 +1333,9 @@
       <c r="M11" s="32"/>
       <c r="N11" s="29"/>
     </row>
-    <row r="12" spans="1:86" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:97" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B12" s="8">
         <v>43731</v>
@@ -1483,7 +1344,7 @@
         <v>43732</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
@@ -1497,9 +1358,9 @@
       <c r="N12" s="29"/>
       <c r="O12" s="29"/>
     </row>
-    <row r="13" spans="1:86" s="9" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:97" s="9" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B13" s="8">
         <v>43733</v>
@@ -1508,7 +1369,7 @@
         <v>43735</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
@@ -1523,9 +1384,9 @@
       <c r="Q13" s="29"/>
       <c r="R13" s="29"/>
     </row>
-    <row r="14" spans="1:86" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:97" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B14" s="8">
         <v>43736</v>
@@ -1534,7 +1395,7 @@
         <v>43738</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
@@ -1550,9 +1411,9 @@
       <c r="U14" s="29"/>
       <c r="V14" s="13"/>
     </row>
-    <row r="15" spans="1:86" s="13" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:97" s="13" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B15" s="25">
         <v>43736</v>
@@ -1561,7 +1422,7 @@
         <v>43738</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
@@ -1576,18 +1437,18 @@
       <c r="T15" s="29"/>
       <c r="U15" s="29"/>
     </row>
-    <row r="16" spans="1:86" s="13" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:97" s="13" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B16" s="18">
         <v>43739</v>
       </c>
       <c r="C16" s="18">
-        <v>43801</v>
+        <v>43806</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
@@ -1644,10 +1505,32 @@
       <c r="BM16" s="29"/>
       <c r="BN16" s="29"/>
       <c r="BO16" s="29"/>
-    </row>
-    <row r="17" spans="1:82" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BP16" s="29"/>
+      <c r="BQ16" s="29"/>
+      <c r="BR16" s="29"/>
+      <c r="BS16" s="29"/>
+      <c r="BT16" s="29"/>
+      <c r="BU16" s="29"/>
+      <c r="BV16" s="29"/>
+      <c r="BW16" s="29"/>
+      <c r="BX16" s="29"/>
+      <c r="BY16" s="29"/>
+      <c r="BZ16" s="29"/>
+      <c r="CA16" s="29"/>
+      <c r="CB16" s="29"/>
+      <c r="CC16" s="29"/>
+      <c r="CD16" s="29"/>
+      <c r="CE16" s="29"/>
+      <c r="CF16" s="29"/>
+      <c r="CG16" s="29"/>
+      <c r="CH16" s="29"/>
+      <c r="CI16" s="29"/>
+      <c r="CJ16" s="29"/>
+      <c r="CK16" s="29"/>
+    </row>
+    <row r="17" spans="1:95" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B17" s="25">
         <v>40856</v>
@@ -1656,7 +1539,7 @@
         <v>43780</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
@@ -1671,9 +1554,9 @@
       <c r="BJ17" s="29"/>
       <c r="BK17" s="29"/>
     </row>
-    <row r="18" spans="1:82" s="13" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:95" s="13" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B18" s="25">
         <v>43780</v>
@@ -1682,7 +1565,7 @@
         <v>43780</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
@@ -1695,9 +1578,9 @@
       <c r="M18" s="27"/>
       <c r="BK18" s="29"/>
     </row>
-    <row r="19" spans="1:82" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:95" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B19" s="25">
         <v>43780</v>
@@ -1706,7 +1589,7 @@
         <v>43781</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
@@ -1720,9 +1603,9 @@
       <c r="BK19" s="29"/>
       <c r="BL19" s="29"/>
     </row>
-    <row r="20" spans="1:82" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:95" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B20" s="25">
         <v>43781</v>
@@ -1731,7 +1614,7 @@
         <v>43782</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
@@ -1745,9 +1628,9 @@
       <c r="BL20" s="29"/>
       <c r="BM20" s="29"/>
     </row>
-    <row r="21" spans="1:82" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:95" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B21" s="25">
         <v>43781</v>
@@ -1756,7 +1639,7 @@
         <v>43784</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
@@ -1770,18 +1653,18 @@
       <c r="BL21" s="29"/>
       <c r="BM21" s="29"/>
     </row>
-    <row r="22" spans="1:82" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:95" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B22" s="18">
-        <v>43801</v>
+        <v>43807</v>
       </c>
       <c r="C22" s="18">
-        <v>43803</v>
+        <v>43807</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
@@ -1792,25 +1675,25 @@
       <c r="K22" s="19"/>
       <c r="L22" s="19"/>
       <c r="M22" s="19"/>
-      <c r="BR22" s="29"/>
-      <c r="BS22" s="29"/>
-      <c r="BT22" s="29"/>
-      <c r="BU22" s="29"/>
-      <c r="BV22" s="29"/>
-      <c r="BW22" s="29"/>
-    </row>
-    <row r="23" spans="1:82" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CL22" s="29"/>
+      <c r="CM22" s="13"/>
+      <c r="CN22" s="13"/>
+      <c r="CO22" s="13"/>
+      <c r="CP22" s="13"/>
+      <c r="CQ22" s="13"/>
+    </row>
+    <row r="23" spans="1:95" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B23" s="18">
-        <v>43801</v>
+        <v>43807</v>
       </c>
       <c r="C23" s="18">
-        <v>43803</v>
+        <v>43807</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
@@ -1821,22 +1704,25 @@
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
       <c r="M23" s="19"/>
-      <c r="BR23" s="29"/>
-      <c r="BS23" s="29"/>
-      <c r="BT23" s="29"/>
-    </row>
-    <row r="24" spans="1:82" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="CL23" s="29"/>
+      <c r="CM23" s="13"/>
+      <c r="CN23" s="13"/>
+      <c r="CO23" s="13"/>
+      <c r="CP23" s="13"/>
+      <c r="CQ23" s="13"/>
+    </row>
+    <row r="24" spans="1:95" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B24" s="18">
-        <v>43803</v>
+        <v>43807</v>
       </c>
       <c r="C24" s="18">
-        <v>43803</v>
+        <v>43807</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
@@ -1847,25 +1733,27 @@
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
       <c r="M24" s="19"/>
-      <c r="BY24" s="29"/>
-      <c r="BZ24" s="29"/>
-      <c r="CA24" s="29"/>
-      <c r="CB24" s="29"/>
-      <c r="CC24" s="29"/>
-      <c r="CD24" s="29"/>
-    </row>
-    <row r="25" spans="1:82" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="BX24" s="13"/>
+      <c r="BY24" s="13"/>
+      <c r="BZ24" s="13"/>
+      <c r="CA24" s="13"/>
+      <c r="CB24" s="13"/>
+      <c r="CC24" s="13"/>
+      <c r="CD24" s="13"/>
+      <c r="CL24" s="29"/>
+    </row>
+    <row r="25" spans="1:95" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B25" s="18">
-        <v>43803</v>
+        <v>43808</v>
       </c>
       <c r="C25" s="18">
-        <v>43805</v>
+        <v>43808</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
@@ -1876,26 +1764,29 @@
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
-      <c r="BY25" s="29"/>
-      <c r="BZ25" s="29"/>
-      <c r="CA25" s="29"/>
-      <c r="CB25" s="29"/>
-      <c r="CC25" s="29"/>
-      <c r="CD25" s="29"/>
-    </row>
-    <row r="26" spans="1:82" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="BX25" s="13"/>
+      <c r="BY25" s="13"/>
+      <c r="BZ25" s="13"/>
+      <c r="CA25" s="13"/>
+      <c r="CB25" s="13"/>
+      <c r="CC25" s="13"/>
+      <c r="CD25" s="13"/>
+      <c r="CM25" s="29"/>
+    </row>
+    <row r="26" spans="1:95" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B26" s="18">
-        <v>43803</v>
+        <v>43807</v>
       </c>
       <c r="C26" s="18">
-        <v>43805</v>
+        <v>43807</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>53</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="CL26" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
